--- a/TimeLog/RetroPc_Timesheet_MaksKolodynski.xlsx
+++ b/TimeLog/RetroPc_Timesheet_MaksKolodynski.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxtt\AndroidStudioProjects\RetroPC\TimeLog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polslpl-my.sharepoint.com/personal/mk302488_student_polsl_pl/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9759F5D5-FB22-4510-9C06-102B69100545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF082EC5-A9D9-43F5-91FA-BA71316D503A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A85FDC03-D29B-44B3-999F-F82E94A5CF9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Zadanie</t>
   </si>
@@ -65,32 +65,32 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>8 - nadal</t>
+    <t>Testy instrukcji</t>
   </si>
   <si>
     <t>Zapoznanie się z UI(xml, jetpack, kotlin)</t>
   </si>
   <si>
-    <t>2 - nadal</t>
-  </si>
-  <si>
-    <t>Testy operacji</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-  </si>
-  <si>
-    <t>Dokumentacja</t>
-  </si>
-  <si>
-    <t>Prezentacja</t>
+    <t>Dokumentacja wewnetrzna</t>
+  </si>
+  <si>
+    <t>Dokumentacja testów</t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>Stworzenie widoków</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,9 +248,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +288,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -394,7 +394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -547,17 +547,17 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44.28515625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -579,18 +579,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -601,7 +601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -620,134 +620,146 @@
         <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -761,6 +773,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="355c9631-857a-43b7-87c5-8b7251772609" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100189B118FC9CD1843AEF0C99CA629B423" ma:contentTypeVersion="9" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="05d551a38eebe8a502471580e4c314fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="355c9631-857a-43b7-87c5-8b7251772609" xmlns:ns4="c8d010d4-e7fe-419f-be6b-c889e5a1f0ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7517941fb2c9511d6d50c9641c33255b" ns3:_="" ns4:_="">
     <xsd:import namespace="355c9631-857a-43b7-87c5-8b7251772609"/>
@@ -957,63 +986,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="355c9631-857a-43b7-87c5-8b7251772609" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFED610B-7060-4F26-982C-D6FD7A50BDCD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="355c9631-857a-43b7-87c5-8b7251772609"/>
-    <ds:schemaRef ds:uri="c8d010d4-e7fe-419f-be6b-c889e5a1f0ff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD93ED84-EC33-4890-8797-C78A991ECF32}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3B541-0F42-4890-AEFA-6FDDDCA179FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3B541-0F42-4890-AEFA-6FDDDCA179FE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD93ED84-EC33-4890-8797-C78A991ECF32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c8d010d4-e7fe-419f-be6b-c889e5a1f0ff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="355c9631-857a-43b7-87c5-8b7251772609"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFED610B-7060-4F26-982C-D6FD7A50BDCD}"/>
 </file>